--- a/DesafioHROADS/ModelagemFisicaHROADS.xlsx
+++ b/DesafioHROADS/ModelagemFisicaHROADS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Manoel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Manoel\OneDrive\Área de Trabalho\Sprint-1_BD_Relacional\DesafioHROADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83725F9-D09C-4AA7-979A-6A7045FB1C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{424E145B-512D-4560-AEEF-C771D56D9AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A19C9796-FF3D-4FDC-8DB3-589F25059702}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Classe</t>
   </si>
@@ -120,14 +120,25 @@
   </si>
   <si>
     <t>Magia</t>
+  </si>
+  <si>
+    <t>ClasseHabilidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,6 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6655A524-FF78-407C-8533-B991C85AD60D}">
-  <dimension ref="C2:N14"/>
+  <dimension ref="C2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +585,7 @@
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
   </cols>
@@ -754,6 +766,10 @@
         <v>23</v>
       </c>
       <c r="I9" s="10"/>
+      <c r="K9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
@@ -771,6 +787,12 @@
       <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="K10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -788,6 +810,12 @@
       <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -805,6 +833,12 @@
       <c r="I12" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -821,6 +855,12 @@
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
@@ -831,13 +871,18 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesafioHROADS/ModelagemFisicaHROADS.xlsx
+++ b/DesafioHROADS/ModelagemFisicaHROADS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Manoel\OneDrive\Área de Trabalho\Sprint-1_BD_Relacional\DesafioHROADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{424E145B-512D-4560-AEEF-C771D56D9AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51749AB8-24F3-4C36-8FE0-8DEBDC50E937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A19C9796-FF3D-4FDC-8DB3-589F25059702}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Classe</t>
   </si>
@@ -41,15 +41,9 @@
     <t>idClasse</t>
   </si>
   <si>
-    <t>idPersonage</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>IdHabilidade</t>
-  </si>
-  <si>
     <t>Barbaro</t>
   </si>
   <si>
@@ -123,13 +117,39 @@
   </si>
   <si>
     <t>ClasseHabilidade</t>
+  </si>
+  <si>
+    <r>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +159,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -230,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -242,6 +270,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,7 +283,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,7 +608,7 @@
   <dimension ref="C2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,70 +627,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -662,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2">
         <v>100</v>
@@ -681,15 +709,11 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="H5" s="2">
         <v>2</v>
       </c>
@@ -697,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2">
         <v>70</v>
@@ -716,15 +740,11 @@
       <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="H6" s="2">
         <v>3</v>
       </c>
@@ -732,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2">
         <v>75</v>
@@ -757,41 +777,41 @@
       <c r="N7" s="1"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="K9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="H9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="K9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
@@ -802,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -825,13 +845,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" s="2">
         <v>2</v>
@@ -848,13 +868,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2">
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13" s="2">
         <v>3</v>
@@ -868,19 +888,19 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M16" s="11"/>
+      <c r="M16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
